--- a/Data_frame/balancos_definitivos/GPAR3.xlsx
+++ b/Data_frame/balancos_definitivos/GPAR3.xlsx
@@ -11031,24 +11031,26 @@
           <t>Receita Bruta de Vendas e/ou Serviços</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>769614.0159999999</v>
+      </c>
       <c r="C57" t="n">
-        <v>769614.0159999999</v>
+        <v>789164.032</v>
       </c>
       <c r="D57" t="n">
-        <v>789164.032</v>
+        <v>741977.024</v>
       </c>
       <c r="E57" t="n">
-        <v>741977.024</v>
+        <v>784934.976</v>
       </c>
       <c r="F57" t="n">
-        <v>784934.976</v>
+        <v>810398.0159999999</v>
       </c>
       <c r="G57" t="n">
-        <v>810398.0159999999</v>
+        <v>808124.8639999999</v>
       </c>
       <c r="H57" t="n">
-        <v>808124.8639999999</v>
+        <v>804926.976</v>
       </c>
       <c r="I57" t="n">
         <v>804926.976</v>
@@ -11116,24 +11118,26 @@
           <t>Deduções da Receita Bruta</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>-310064</v>
+      </c>
       <c r="C58" t="n">
-        <v>-310064</v>
+        <v>-329206.016</v>
       </c>
       <c r="D58" t="n">
-        <v>-329206.016</v>
+        <v>-308577.984</v>
       </c>
       <c r="E58" t="n">
-        <v>-308577.984</v>
+        <v>-323363.008</v>
       </c>
       <c r="F58" t="n">
-        <v>-323363.008</v>
+        <v>-328436</v>
       </c>
       <c r="G58" t="n">
-        <v>-328436</v>
+        <v>-334526.048</v>
       </c>
       <c r="H58" t="n">
-        <v>-334526.048</v>
+        <v>-340451.008</v>
       </c>
       <c r="I58" t="n">
         <v>-340451.008</v>
@@ -11201,24 +11205,26 @@
           <t>Receita Líquida de Vendas e/ou Serviços</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>459550.016</v>
+      </c>
       <c r="C59" t="n">
-        <v>459550.016</v>
+        <v>459958.016</v>
       </c>
       <c r="D59" t="n">
-        <v>459958.016</v>
+        <v>433399.008</v>
       </c>
       <c r="E59" t="n">
-        <v>433399.008</v>
+        <v>461572</v>
       </c>
       <c r="F59" t="n">
-        <v>461572</v>
+        <v>481961.984</v>
       </c>
       <c r="G59" t="n">
-        <v>481961.984</v>
+        <v>473598.976</v>
       </c>
       <c r="H59" t="n">
-        <v>473598.976</v>
+        <v>464476</v>
       </c>
       <c r="I59" t="n">
         <v>464476</v>
@@ -11345,31 +11351,31 @@
         <v>69028</v>
       </c>
       <c r="AY59" t="n">
-        <v>18413</v>
+        <v>181792</v>
       </c>
       <c r="AZ59" t="n">
-        <v>181792</v>
+        <v>4226</v>
       </c>
       <c r="BA59" t="n">
-        <v>4226</v>
+        <v>5685</v>
       </c>
       <c r="BB59" t="n">
-        <v>5685</v>
+        <v>-2272</v>
       </c>
       <c r="BC59" t="n">
-        <v>-2272</v>
+        <v>-7639</v>
       </c>
       <c r="BD59" t="n">
-        <v>-7639</v>
+        <v>3801</v>
       </c>
       <c r="BE59" t="n">
-        <v>3801</v>
+        <v>4480</v>
       </c>
       <c r="BF59" t="n">
-        <v>4480</v>
+        <v>1221</v>
       </c>
       <c r="BG59" t="n">
-        <v>1221</v>
+        <v>-9502</v>
       </c>
       <c r="BH59" t="n">
         <v>8342</v>
@@ -11384,24 +11390,26 @@
           <t>Custo de Bens e/ou Serviços Vendidos</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>-407031.008</v>
+      </c>
       <c r="C60" t="n">
-        <v>-407031.008</v>
+        <v>-338262.016</v>
       </c>
       <c r="D60" t="n">
-        <v>-338262.016</v>
+        <v>-354099.008</v>
       </c>
       <c r="E60" t="n">
-        <v>-354099.008</v>
+        <v>-376799.008</v>
       </c>
       <c r="F60" t="n">
-        <v>-376799.008</v>
+        <v>-424875.008</v>
       </c>
       <c r="G60" t="n">
-        <v>-424875.008</v>
+        <v>-426157.984</v>
       </c>
       <c r="H60" t="n">
-        <v>-426157.984</v>
+        <v>-389452</v>
       </c>
       <c r="I60" t="n">
         <v>-389452</v>
@@ -11526,31 +11534,31 @@
         <v>-9792</v>
       </c>
       <c r="AY60" t="n">
-        <v>-18497</v>
+        <v>-14018</v>
       </c>
       <c r="AZ60" t="n">
-        <v>-14018</v>
+        <v>-1153</v>
       </c>
       <c r="BA60" t="n">
-        <v>-1153</v>
+        <v>-1381</v>
       </c>
       <c r="BB60" t="n">
-        <v>-1381</v>
+        <v>-4222</v>
       </c>
       <c r="BC60" t="n">
-        <v>-4222</v>
+        <v>6756</v>
       </c>
       <c r="BD60" t="n">
-        <v>6756</v>
+        <v>-1005</v>
       </c>
       <c r="BE60" t="n">
-        <v>-1005</v>
+        <v>-1503</v>
       </c>
       <c r="BF60" t="n">
-        <v>-1503</v>
+        <v>-2205</v>
       </c>
       <c r="BG60" t="n">
-        <v>-2205</v>
+        <v>4713</v>
       </c>
       <c r="BH60" t="n">
         <v>-2936</v>
@@ -11565,24 +11573,26 @@
           <t>Resultado Bruto</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>52519</v>
+      </c>
       <c r="C61" t="n">
-        <v>52519</v>
+        <v>121696.016</v>
       </c>
       <c r="D61" t="n">
-        <v>121696.016</v>
+        <v>79300</v>
       </c>
       <c r="E61" t="n">
-        <v>79300</v>
+        <v>84773</v>
       </c>
       <c r="F61" t="n">
-        <v>84773</v>
+        <v>57087</v>
       </c>
       <c r="G61" t="n">
-        <v>57087</v>
+        <v>47440.992</v>
       </c>
       <c r="H61" t="n">
-        <v>47440.992</v>
+        <v>75024</v>
       </c>
       <c r="I61" t="n">
         <v>75024</v>
@@ -11707,31 +11717,31 @@
         <v>59236</v>
       </c>
       <c r="AY61" t="n">
-        <v>-84</v>
+        <v>78920</v>
       </c>
       <c r="AZ61" t="n">
-        <v>78920</v>
+        <v>3073</v>
       </c>
       <c r="BA61" t="n">
-        <v>3073</v>
+        <v>4304</v>
       </c>
       <c r="BB61" t="n">
-        <v>4304</v>
+        <v>-6494</v>
       </c>
       <c r="BC61" t="n">
-        <v>-6494</v>
+        <v>-883</v>
       </c>
       <c r="BD61" t="n">
-        <v>-883</v>
+        <v>2796</v>
       </c>
       <c r="BE61" t="n">
-        <v>2796</v>
+        <v>2977</v>
       </c>
       <c r="BF61" t="n">
-        <v>2977</v>
+        <v>-984</v>
       </c>
       <c r="BG61" t="n">
-        <v>-984</v>
+        <v>-4789</v>
       </c>
       <c r="BH61" t="n">
         <v>5406</v>
@@ -11746,7 +11756,9 @@
           <t>Despesas Com Vendas</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
@@ -11927,24 +11939,26 @@
           <t>Despesas Gerais e Administrativas</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>-66553</v>
+      </c>
       <c r="C63" t="n">
-        <v>-66553</v>
+        <v>-72368</v>
       </c>
       <c r="D63" t="n">
-        <v>-72368</v>
+        <v>-73948</v>
       </c>
       <c r="E63" t="n">
-        <v>-73948</v>
+        <v>-101273</v>
       </c>
       <c r="F63" t="n">
-        <v>-101273</v>
+        <v>-80609</v>
       </c>
       <c r="G63" t="n">
-        <v>-80609</v>
+        <v>-105205.008</v>
       </c>
       <c r="H63" t="n">
-        <v>-105205.008</v>
+        <v>-98283</v>
       </c>
       <c r="I63" t="n">
         <v>-98283</v>
@@ -12069,31 +12083,31 @@
         <v>-10371</v>
       </c>
       <c r="AY63" t="n">
-        <v>-11110</v>
+        <v>-8479</v>
       </c>
       <c r="AZ63" t="n">
-        <v>-8479</v>
+        <v>-6486</v>
       </c>
       <c r="BA63" t="n">
-        <v>-6486</v>
+        <v>-6198</v>
       </c>
       <c r="BB63" t="n">
-        <v>-6198</v>
+        <v>-7950</v>
       </c>
       <c r="BC63" t="n">
-        <v>-7950</v>
+        <v>20634</v>
       </c>
       <c r="BD63" t="n">
-        <v>20634</v>
+        <v>-6242</v>
       </c>
       <c r="BE63" t="n">
-        <v>-6242</v>
+        <v>-7020</v>
       </c>
       <c r="BF63" t="n">
-        <v>-7020</v>
+        <v>-6673</v>
       </c>
       <c r="BG63" t="n">
-        <v>-6673</v>
+        <v>19935</v>
       </c>
       <c r="BH63" t="n">
         <v>-7117</v>
@@ -12273,7 +12287,9 @@
           <t>Outras Receitas Operacionais</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
@@ -12415,31 +12431,31 @@
         <v>16</v>
       </c>
       <c r="AY65" t="n">
-        <v>72</v>
+        <v>43936</v>
       </c>
       <c r="AZ65" t="n">
-        <v>43936</v>
+        <v>992302.0159999999</v>
       </c>
       <c r="BA65" t="n">
-        <v>992302.0159999999</v>
+        <v>0</v>
       </c>
       <c r="BB65" t="n">
         <v>0</v>
       </c>
       <c r="BC65" t="n">
-        <v>0</v>
+        <v>-992302.0159999999</v>
       </c>
       <c r="BD65" t="n">
-        <v>-992302.0159999999</v>
+        <v>0</v>
       </c>
       <c r="BE65" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="BF65" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="BG65" t="n">
-        <v>0</v>
+        <v>-146</v>
       </c>
       <c r="BH65" t="n">
         <v>1146</v>
@@ -12454,7 +12470,9 @@
           <t>Outras Despesas Operacionais</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
@@ -12596,31 +12614,31 @@
         <v>-3728</v>
       </c>
       <c r="AY66" t="n">
-        <v>-332</v>
+        <v>-4363</v>
       </c>
       <c r="AZ66" t="n">
-        <v>-4363</v>
+        <v>0</v>
       </c>
       <c r="BA66" t="n">
-        <v>0</v>
+        <v>-174</v>
       </c>
       <c r="BB66" t="n">
-        <v>-174</v>
+        <v>-462</v>
       </c>
       <c r="BC66" t="n">
-        <v>-462</v>
+        <v>636</v>
       </c>
       <c r="BD66" t="n">
-        <v>636</v>
+        <v>-309</v>
       </c>
       <c r="BE66" t="n">
-        <v>-309</v>
+        <v>0</v>
       </c>
       <c r="BF66" t="n">
-        <v>0</v>
+        <v>-863</v>
       </c>
       <c r="BG66" t="n">
-        <v>-863</v>
+        <v>1172</v>
       </c>
       <c r="BH66" t="n">
         <v>0</v>
@@ -12635,7 +12653,9 @@
           <t>Resultado da Equivalência Patrimonial</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
@@ -12649,10 +12669,10 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="H67" t="n">
-        <v>-60</v>
+        <v>360</v>
       </c>
       <c r="I67" t="n">
         <v>360</v>
@@ -12777,31 +12797,31 @@
         <v>0</v>
       </c>
       <c r="AY67" t="n">
-        <v>0</v>
+        <v>13141</v>
       </c>
       <c r="AZ67" t="n">
-        <v>13141</v>
+        <v>29854</v>
       </c>
       <c r="BA67" t="n">
-        <v>29854</v>
+        <v>10386</v>
       </c>
       <c r="BB67" t="n">
-        <v>10386</v>
+        <v>5105</v>
       </c>
       <c r="BC67" t="n">
-        <v>5105</v>
+        <v>-45345</v>
       </c>
       <c r="BD67" t="n">
-        <v>-45345</v>
+        <v>8198</v>
       </c>
       <c r="BE67" t="n">
-        <v>8198</v>
+        <v>10063</v>
       </c>
       <c r="BF67" t="n">
-        <v>10063</v>
+        <v>7631</v>
       </c>
       <c r="BG67" t="n">
-        <v>7631</v>
+        <v>-25892</v>
       </c>
       <c r="BH67" t="n">
         <v>6923</v>
@@ -12816,24 +12836,26 @@
           <t>Financeiras</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>-134174</v>
+      </c>
       <c r="C68" t="n">
-        <v>-134174</v>
+        <v>-182430.016</v>
       </c>
       <c r="D68" t="n">
-        <v>-182430.016</v>
+        <v>-28543</v>
       </c>
       <c r="E68" t="n">
-        <v>-28543</v>
+        <v>62420</v>
       </c>
       <c r="F68" t="n">
-        <v>62420</v>
+        <v>7906</v>
       </c>
       <c r="G68" t="n">
-        <v>7906</v>
+        <v>-22573</v>
       </c>
       <c r="H68" t="n">
-        <v>-22573</v>
+        <v>-163404</v>
       </c>
       <c r="I68" t="n">
         <v>-163404</v>
@@ -12960,31 +12982,31 @@
         <v>-279</v>
       </c>
       <c r="AY68" t="n">
-        <v>866</v>
+        <v>-44133</v>
       </c>
       <c r="AZ68" t="n">
-        <v>-44133</v>
+        <v>32002</v>
       </c>
       <c r="BA68" t="n">
-        <v>32002</v>
+        <v>53120</v>
       </c>
       <c r="BB68" t="n">
-        <v>53120</v>
+        <v>30157</v>
       </c>
       <c r="BC68" t="n">
-        <v>30157</v>
+        <v>-115279</v>
       </c>
       <c r="BD68" t="n">
-        <v>-115279</v>
+        <v>8019</v>
       </c>
       <c r="BE68" t="n">
-        <v>8019</v>
+        <v>7226</v>
       </c>
       <c r="BF68" t="n">
-        <v>7226</v>
+        <v>6725</v>
       </c>
       <c r="BG68" t="n">
-        <v>6725</v>
+        <v>-21970</v>
       </c>
       <c r="BH68" t="n">
         <v>5866</v>
@@ -12999,24 +13021,26 @@
           <t>Receitas Financeiras</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>137447.008</v>
+      </c>
       <c r="C69" t="n">
-        <v>137447.008</v>
+        <v>145488.96</v>
       </c>
       <c r="D69" t="n">
-        <v>145488.96</v>
+        <v>134784.992</v>
       </c>
       <c r="E69" t="n">
-        <v>134784.992</v>
+        <v>221250</v>
       </c>
       <c r="F69" t="n">
-        <v>221250</v>
+        <v>144718</v>
       </c>
       <c r="G69" t="n">
-        <v>144718</v>
+        <v>104317.984</v>
       </c>
       <c r="H69" t="n">
-        <v>104317.984</v>
+        <v>86878</v>
       </c>
       <c r="I69" t="n">
         <v>86878</v>
@@ -13141,31 +13165,31 @@
         <v>3156</v>
       </c>
       <c r="AY69" t="n">
-        <v>4193</v>
+        <v>5758</v>
       </c>
       <c r="AZ69" t="n">
-        <v>5758</v>
+        <v>32038</v>
       </c>
       <c r="BA69" t="n">
-        <v>32038</v>
+        <v>53120</v>
       </c>
       <c r="BB69" t="n">
-        <v>53120</v>
+        <v>30194</v>
       </c>
       <c r="BC69" t="n">
-        <v>30194</v>
+        <v>-115352</v>
       </c>
       <c r="BD69" t="n">
-        <v>-115352</v>
+        <v>8056</v>
       </c>
       <c r="BE69" t="n">
-        <v>8056</v>
+        <v>7265</v>
       </c>
       <c r="BF69" t="n">
-        <v>7265</v>
+        <v>6759</v>
       </c>
       <c r="BG69" t="n">
-        <v>6759</v>
+        <v>-22080</v>
       </c>
       <c r="BH69" t="n">
         <v>6177</v>
@@ -13180,24 +13204,26 @@
           <t>Despesas Financeiras</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>-271620.992</v>
+      </c>
       <c r="C70" t="n">
-        <v>-271620.992</v>
+        <v>-327919.04</v>
       </c>
       <c r="D70" t="n">
-        <v>-327919.04</v>
+        <v>-163328</v>
       </c>
       <c r="E70" t="n">
-        <v>-163328</v>
+        <v>-158830</v>
       </c>
       <c r="F70" t="n">
-        <v>-158830</v>
+        <v>-136812</v>
       </c>
       <c r="G70" t="n">
-        <v>-136812</v>
+        <v>-126890.992</v>
       </c>
       <c r="H70" t="n">
-        <v>-126890.992</v>
+        <v>-250282</v>
       </c>
       <c r="I70" t="n">
         <v>-250282</v>
@@ -13322,31 +13348,31 @@
         <v>-3435</v>
       </c>
       <c r="AY70" t="n">
-        <v>-3327</v>
+        <v>-5646</v>
       </c>
       <c r="AZ70" t="n">
-        <v>-5646</v>
+        <v>-36</v>
       </c>
       <c r="BA70" t="n">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="BB70" t="n">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="BC70" t="n">
+        <v>73</v>
+      </c>
+      <c r="BD70" t="n">
         <v>-37</v>
       </c>
-      <c r="BD70" t="n">
-        <v>73</v>
-      </c>
       <c r="BE70" t="n">
-        <v>-37</v>
+        <v>-39</v>
       </c>
       <c r="BF70" t="n">
-        <v>-39</v>
+        <v>-34</v>
       </c>
       <c r="BG70" t="n">
-        <v>-34</v>
+        <v>110</v>
       </c>
       <c r="BH70" t="n">
         <v>-311</v>
@@ -13361,24 +13387,26 @@
           <t>Resultado Não Operacional</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>-4458</v>
+      </c>
       <c r="C71" t="n">
-        <v>-4458</v>
+        <v>-4643</v>
       </c>
       <c r="D71" t="n">
-        <v>-4643</v>
+        <v>-1995</v>
       </c>
       <c r="E71" t="n">
-        <v>-1995</v>
+        <v>-4775</v>
       </c>
       <c r="F71" t="n">
-        <v>-4775</v>
+        <v>-4405</v>
       </c>
       <c r="G71" t="n">
-        <v>-4405</v>
+        <v>-7465</v>
       </c>
       <c r="H71" t="n">
-        <v>-7465</v>
+        <v>-3124</v>
       </c>
       <c r="I71" t="n">
         <v>-3124</v>
@@ -13446,24 +13474,26 @@
           <t>Receitas</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>527</v>
+      </c>
       <c r="C72" t="n">
-        <v>527</v>
+        <v>1743</v>
       </c>
       <c r="D72" t="n">
-        <v>1743</v>
+        <v>774</v>
       </c>
       <c r="E72" t="n">
-        <v>774</v>
+        <v>835</v>
       </c>
       <c r="F72" t="n">
-        <v>835</v>
+        <v>535</v>
       </c>
       <c r="G72" t="n">
-        <v>535</v>
+        <v>2445</v>
       </c>
       <c r="H72" t="n">
-        <v>2445</v>
+        <v>604</v>
       </c>
       <c r="I72" t="n">
         <v>604</v>
@@ -13529,24 +13559,26 @@
           <t>Despesas</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>-4985</v>
+      </c>
       <c r="C73" t="n">
-        <v>-4985</v>
+        <v>-6386</v>
       </c>
       <c r="D73" t="n">
-        <v>-6386</v>
+        <v>-2769</v>
       </c>
       <c r="E73" t="n">
-        <v>-2769</v>
+        <v>-5610</v>
       </c>
       <c r="F73" t="n">
-        <v>-5610</v>
+        <v>-4940</v>
       </c>
       <c r="G73" t="n">
-        <v>-4940</v>
+        <v>-9910</v>
       </c>
       <c r="H73" t="n">
-        <v>-9910</v>
+        <v>-3728</v>
       </c>
       <c r="I73" t="n">
         <v>-3728</v>
@@ -13612,24 +13644,26 @@
           <t>Resultado Antes Tributação/Participações</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>-152666</v>
+      </c>
       <c r="C74" t="n">
-        <v>-152666</v>
+        <v>-137744.992</v>
       </c>
       <c r="D74" t="n">
-        <v>-137744.992</v>
+        <v>-25186</v>
       </c>
       <c r="E74" t="n">
-        <v>-25186</v>
+        <v>41145</v>
       </c>
       <c r="F74" t="n">
-        <v>41145</v>
+        <v>-20021</v>
       </c>
       <c r="G74" t="n">
-        <v>-20021</v>
+        <v>-87862</v>
       </c>
       <c r="H74" t="n">
-        <v>-87862</v>
+        <v>-189427.008</v>
       </c>
       <c r="I74" t="n">
         <v>-189427.008</v>
@@ -13754,31 +13788,31 @@
         <v>44874</v>
       </c>
       <c r="AY74" t="n">
-        <v>-10588</v>
+        <v>123267.008</v>
       </c>
       <c r="AZ74" t="n">
-        <v>123267.008</v>
+        <v>1050745.024</v>
       </c>
       <c r="BA74" t="n">
-        <v>1050745.024</v>
+        <v>61438</v>
       </c>
       <c r="BB74" t="n">
-        <v>61438</v>
+        <v>20356</v>
       </c>
       <c r="BC74" t="n">
-        <v>20356</v>
+        <v>-1132539.008</v>
       </c>
       <c r="BD74" t="n">
-        <v>-1132539.008</v>
+        <v>12462</v>
       </c>
       <c r="BE74" t="n">
-        <v>12462</v>
+        <v>13392</v>
       </c>
       <c r="BF74" t="n">
-        <v>13392</v>
+        <v>5836</v>
       </c>
       <c r="BG74" t="n">
-        <v>5836</v>
+        <v>-31690</v>
       </c>
       <c r="BH74" t="n">
         <v>12224</v>
@@ -13793,24 +13827,26 @@
           <t>Provisão para IR e Contribuição Social</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>47462</v>
+      </c>
       <c r="C75" t="n">
-        <v>47462</v>
+        <v>45386</v>
       </c>
       <c r="D75" t="n">
-        <v>45386</v>
+        <v>-546</v>
       </c>
       <c r="E75" t="n">
-        <v>-546</v>
+        <v>-516</v>
       </c>
       <c r="F75" t="n">
-        <v>-516</v>
+        <v>-873</v>
       </c>
       <c r="G75" t="n">
-        <v>-873</v>
+        <v>-593</v>
       </c>
       <c r="H75" t="n">
-        <v>-593</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -13937,31 +13973,31 @@
         <v>-7315</v>
       </c>
       <c r="AY75" t="n">
-        <v>9862</v>
+        <v>-26527</v>
       </c>
       <c r="AZ75" t="n">
-        <v>-26527</v>
+        <v>-345607.008</v>
       </c>
       <c r="BA75" t="n">
-        <v>-345607.008</v>
+        <v>-17351</v>
       </c>
       <c r="BB75" t="n">
-        <v>-17351</v>
+        <v>-9984</v>
       </c>
       <c r="BC75" t="n">
-        <v>-9984</v>
+        <v>372942.016</v>
       </c>
       <c r="BD75" t="n">
-        <v>372942.016</v>
+        <v>-1167</v>
       </c>
       <c r="BE75" t="n">
-        <v>-1167</v>
+        <v>559</v>
       </c>
       <c r="BF75" t="n">
-        <v>559</v>
+        <v>-739</v>
       </c>
       <c r="BG75" t="n">
-        <v>-739</v>
+        <v>1347</v>
       </c>
       <c r="BH75" t="n">
         <v>-539</v>
@@ -13976,7 +14012,9 @@
           <t>IR Diferido</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
@@ -14118,31 +14156,31 @@
         <v>-8129</v>
       </c>
       <c r="AY76" t="n">
-        <v>-6324</v>
+        <v>-29429</v>
       </c>
       <c r="AZ76" t="n">
-        <v>-29429</v>
+        <v>832</v>
       </c>
       <c r="BA76" t="n">
-        <v>832</v>
+        <v>0</v>
       </c>
       <c r="BB76" t="n">
-        <v>0</v>
+        <v>3469</v>
       </c>
       <c r="BC76" t="n">
-        <v>3469</v>
+        <v>-4301</v>
       </c>
       <c r="BD76" t="n">
-        <v>-4301</v>
+        <v>-288</v>
       </c>
       <c r="BE76" t="n">
-        <v>-288</v>
+        <v>-1708</v>
       </c>
       <c r="BF76" t="n">
-        <v>-1708</v>
+        <v>1359</v>
       </c>
       <c r="BG76" t="n">
-        <v>1359</v>
+        <v>637</v>
       </c>
       <c r="BH76" t="n">
         <v>-747</v>
@@ -14157,7 +14195,9 @@
           <t>Participações/Contribuições Estatutárias</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
@@ -14242,7 +14282,9 @@
           <t>Reversão dos Juros sobre Capital Próprio</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
@@ -14325,7 +14367,9 @@
           <t>Part. de Acionistas Não Controladores</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
@@ -14469,9 +14513,7 @@
       <c r="AY79" t="n">
         <v>0</v>
       </c>
-      <c r="AZ79" t="n">
-        <v>0</v>
-      </c>
+      <c r="AZ79" t="inlineStr"/>
       <c r="BA79" t="inlineStr"/>
       <c r="BB79" t="inlineStr"/>
       <c r="BC79" t="inlineStr"/>
@@ -14492,24 +14534,26 @@
           <t>Lucro/Prejuízo do Período</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>-105204</v>
+      </c>
       <c r="C80" t="n">
-        <v>-105204</v>
+        <v>-92358.992</v>
       </c>
       <c r="D80" t="n">
-        <v>-92358.992</v>
+        <v>-25732</v>
       </c>
       <c r="E80" t="n">
-        <v>-25732</v>
+        <v>40629</v>
       </c>
       <c r="F80" t="n">
-        <v>40629</v>
+        <v>-20894</v>
       </c>
       <c r="G80" t="n">
-        <v>-20894</v>
+        <v>-88455</v>
       </c>
       <c r="H80" t="n">
-        <v>-88455</v>
+        <v>-189427.008</v>
       </c>
       <c r="I80" t="n">
         <v>-189427.008</v>
@@ -14634,31 +14678,31 @@
         <v>0</v>
       </c>
       <c r="AY80" t="n">
-        <v>2792</v>
+        <v>85289.008</v>
       </c>
       <c r="AZ80" t="n">
-        <v>85289.008</v>
+        <v>705969.9840000001</v>
       </c>
       <c r="BA80" t="n">
-        <v>705969.9840000001</v>
+        <v>44087</v>
       </c>
       <c r="BB80" t="n">
-        <v>44087</v>
+        <v>13841</v>
       </c>
       <c r="BC80" t="n">
-        <v>13841</v>
+        <v>-763897.9840000001</v>
       </c>
       <c r="BD80" t="n">
-        <v>-763897.9840000001</v>
+        <v>11007</v>
       </c>
       <c r="BE80" t="n">
-        <v>11007</v>
+        <v>12243</v>
       </c>
       <c r="BF80" t="n">
-        <v>12243</v>
+        <v>6456</v>
       </c>
       <c r="BG80" t="n">
-        <v>6456</v>
+        <v>-29706</v>
       </c>
       <c r="BH80" t="n">
         <v>10927</v>
